--- a/notebook-tests/Seedbox/MEMBERSHIP TRANSLATION.xlsx
+++ b/notebook-tests/Seedbox/MEMBERSHIP TRANSLATION.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="28">
   <si>
     <t>DISTRICT</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PANGHULO</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>34.2</v>
+      <c r="G2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -521,7 +524,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>11.15</v>
+        <v>17.15384615384615</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -544,7 +547,7 @@
         <v>24</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -567,7 +570,7 @@
         <v>27</v>
       </c>
       <c r="G5">
-        <v>4.407407407407407</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -590,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="G6">
-        <v>14.59259259259259</v>
+        <v>35.81818181818182</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -613,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="G7">
-        <v>10.24137931034483</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -636,7 +639,7 @@
         <v>31</v>
       </c>
       <c r="G8">
-        <v>8.129032258064516</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -659,7 +662,7 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>7.483870967741935</v>
+        <v>13.64705882352941</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -682,7 +685,7 @@
         <v>33</v>
       </c>
       <c r="G10">
-        <v>5.96969696969697</v>
+        <v>10.36842105263158</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -705,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="G11">
-        <v>4.454545454545454</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -728,7 +731,7 @@
         <v>33</v>
       </c>
       <c r="G12">
-        <v>5.212121212121212</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -751,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="G13">
-        <v>8.060606060606061</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -774,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="G14">
-        <v>5.257142857142857</v>
+        <v>12.26666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -797,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="G15">
-        <v>7.972222222222222</v>
+        <v>47.83333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -820,7 +823,7 @@
         <v>37</v>
       </c>
       <c r="G16">
-        <v>6.378378378378378</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -843,7 +846,7 @@
         <v>37</v>
       </c>
       <c r="G17">
-        <v>4.486486486486487</v>
+        <v>27.66666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -866,7 +869,7 @@
         <v>37</v>
       </c>
       <c r="G18">
-        <v>8.162162162162161</v>
+        <v>23.23076923076923</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -889,7 +892,7 @@
         <v>38</v>
       </c>
       <c r="G19">
-        <v>7.236842105263158</v>
+        <v>91.66666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -912,7 +915,7 @@
         <v>39</v>
       </c>
       <c r="G20">
-        <v>7.487179487179487</v>
+        <v>32.44444444444444</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -935,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="G21">
-        <v>8.073170731707316</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -958,7 +961,7 @@
         <v>42</v>
       </c>
       <c r="G22">
-        <v>5.119047619047619</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -981,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="G23">
-        <v>5.547619047619047</v>
+        <v>16.64285714285714</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1004,7 +1007,7 @@
         <v>44</v>
       </c>
       <c r="G24">
-        <v>5.727272727272728</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1027,7 +1030,7 @@
         <v>45</v>
       </c>
       <c r="G25">
-        <v>5.955555555555556</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1050,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="G26">
-        <v>6.347826086956522</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1073,7 +1076,7 @@
         <v>47</v>
       </c>
       <c r="G27">
-        <v>6.617021276595745</v>
+        <v>44.42857142857143</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1096,7 +1099,7 @@
         <v>48</v>
       </c>
       <c r="G28">
-        <v>3.6875</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1119,7 +1122,7 @@
         <v>49</v>
       </c>
       <c r="G29">
-        <v>5.714285714285714</v>
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1142,7 +1145,7 @@
         <v>51</v>
       </c>
       <c r="G30">
-        <v>4.333333333333333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1165,7 +1168,7 @@
         <v>52</v>
       </c>
       <c r="G31">
-        <v>5.096153846153846</v>
+        <v>20.38461538461538</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1188,7 +1191,7 @@
         <v>53</v>
       </c>
       <c r="G32">
-        <v>6.150943396226415</v>
+        <v>17.15789473684211</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1211,7 +1214,7 @@
         <v>54</v>
       </c>
       <c r="G33">
-        <v>4.907407407407407</v>
+        <v>29.44444444444444</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1234,7 +1237,7 @@
         <v>54</v>
       </c>
       <c r="G34">
-        <v>5.907407407407407</v>
+        <v>13.29166666666667</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1257,7 +1260,7 @@
         <v>56</v>
       </c>
       <c r="G35">
-        <v>5.107142857142857</v>
+        <v>9.862068965517242</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1280,7 +1283,7 @@
         <v>56</v>
       </c>
       <c r="G36">
-        <v>4.553571428571429</v>
+        <v>13.42105263157895</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1303,7 +1306,7 @@
         <v>56</v>
       </c>
       <c r="G37">
-        <v>5.089285714285714</v>
+        <v>10.17857142857143</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1326,7 +1329,7 @@
         <v>57</v>
       </c>
       <c r="G38">
-        <v>6.859649122807017</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1349,7 +1352,7 @@
         <v>57</v>
       </c>
       <c r="G39">
-        <v>2.964912280701754</v>
+        <v>6.035714285714286</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1372,7 +1375,7 @@
         <v>57</v>
       </c>
       <c r="G40">
-        <v>3.385964912280702</v>
+        <v>27.57142857142857</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1395,7 +1398,7 @@
         <v>58</v>
       </c>
       <c r="G41">
-        <v>4.913793103448276</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1418,7 +1421,7 @@
         <v>58</v>
       </c>
       <c r="G42">
-        <v>5.051724137931035</v>
+        <v>9.451612903225806</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1441,7 +1444,7 @@
         <v>59</v>
       </c>
       <c r="G43">
-        <v>3.101694915254237</v>
+        <v>11.4375</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1464,7 +1467,7 @@
         <v>59</v>
       </c>
       <c r="G44">
-        <v>4.898305084745763</v>
+        <v>19.26666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1487,7 +1490,7 @@
         <v>59</v>
       </c>
       <c r="G45">
-        <v>5.847457627118644</v>
+        <v>14.375</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1510,7 +1513,7 @@
         <v>60</v>
       </c>
       <c r="G46">
-        <v>4.133333333333334</v>
+        <v>6.888888888888889</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1533,7 +1536,7 @@
         <v>61</v>
       </c>
       <c r="G47">
-        <v>3.475409836065574</v>
+        <v>23.55555555555556</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1556,7 +1559,7 @@
         <v>62</v>
       </c>
       <c r="G48">
-        <v>4.483870967741935</v>
+        <v>21.38461538461538</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1579,7 +1582,7 @@
         <v>62</v>
       </c>
       <c r="G49">
-        <v>4.67741935483871</v>
+        <v>26.36363636363636</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1602,7 +1605,7 @@
         <v>62</v>
       </c>
       <c r="G50">
-        <v>5.209677419354839</v>
+        <v>107.6666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1625,7 +1628,7 @@
         <v>62</v>
       </c>
       <c r="G51">
-        <v>7.67741935483871</v>
+        <v>10.57777777777778</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1648,7 +1651,7 @@
         <v>63</v>
       </c>
       <c r="G52">
-        <v>5.968253968253968</v>
+        <v>11.05882352941176</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1671,7 +1674,7 @@
         <v>63</v>
       </c>
       <c r="G53">
-        <v>3.587301587301587</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1694,7 +1697,7 @@
         <v>63</v>
       </c>
       <c r="G54">
-        <v>4.825396825396825</v>
+        <v>43.42857142857143</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1717,7 +1720,7 @@
         <v>63</v>
       </c>
       <c r="G55">
-        <v>3.825396825396826</v>
+        <v>6.885714285714286</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1740,7 +1743,7 @@
         <v>63</v>
       </c>
       <c r="G56">
-        <v>2.07936507936508</v>
+        <v>10.91666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1763,7 +1766,7 @@
         <v>64</v>
       </c>
       <c r="G57">
-        <v>5.125</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1786,7 +1789,7 @@
         <v>64</v>
       </c>
       <c r="G58">
-        <v>3.890625</v>
+        <v>5.928571428571429</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1809,7 +1812,7 @@
         <v>64</v>
       </c>
       <c r="G59">
-        <v>4.09375</v>
+        <v>18.71428571428572</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1832,7 +1835,7 @@
         <v>65</v>
       </c>
       <c r="G60">
-        <v>5.261538461538461</v>
+        <v>21.375</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1855,7 +1858,7 @@
         <v>66</v>
       </c>
       <c r="G61">
-        <v>5.5</v>
+        <v>27.92307692307692</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1878,7 +1881,7 @@
         <v>66</v>
       </c>
       <c r="G62">
-        <v>2.712121212121212</v>
+        <v>8.136363636363637</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1901,7 +1904,7 @@
         <v>67</v>
       </c>
       <c r="G63">
-        <v>5.880597014925373</v>
+        <v>14.07142857142857</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1924,7 +1927,7 @@
         <v>67</v>
       </c>
       <c r="G64">
-        <v>5.08955223880597</v>
+        <v>11.75862068965517</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1947,7 +1950,7 @@
         <v>67</v>
       </c>
       <c r="G65">
-        <v>2.761194029850746</v>
+        <v>7.708333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1970,7 +1973,7 @@
         <v>68</v>
       </c>
       <c r="G66">
-        <v>5.088235294117647</v>
+        <v>20.35294117647059</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1993,7 +1996,7 @@
         <v>68</v>
       </c>
       <c r="G67">
-        <v>5.161764705882353</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2016,7 +2019,7 @@
         <v>68</v>
       </c>
       <c r="G68">
-        <v>5.676470588235294</v>
+        <v>10.72222222222222</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2039,7 +2042,7 @@
         <v>69</v>
       </c>
       <c r="G69">
-        <v>3.782608695652174</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2062,7 +2065,7 @@
         <v>69</v>
       </c>
       <c r="G70">
-        <v>3.869565217391304</v>
+        <v>15.70588235294118</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2085,7 +2088,7 @@
         <v>70</v>
       </c>
       <c r="G71">
-        <v>3.614285714285714</v>
+        <v>21.08333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2108,7 +2111,7 @@
         <v>70</v>
       </c>
       <c r="G72">
-        <v>4.957142857142857</v>
+        <v>23.13333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2131,7 +2134,7 @@
         <v>70</v>
       </c>
       <c r="G73">
-        <v>4.728571428571429</v>
+        <v>55.16666666666666</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2154,7 +2157,7 @@
         <v>70</v>
       </c>
       <c r="G74">
-        <v>3.857142857142857</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2177,7 +2180,7 @@
         <v>71</v>
       </c>
       <c r="G75">
-        <v>3.929577464788732</v>
+        <v>5.693877551020408</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2200,7 +2203,7 @@
         <v>71</v>
       </c>
       <c r="G76">
-        <v>3.295774647887324</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2223,7 +2226,7 @@
         <v>71</v>
       </c>
       <c r="G77">
-        <v>3.647887323943662</v>
+        <v>5.51063829787234</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2246,7 +2249,7 @@
         <v>71</v>
       </c>
       <c r="G78">
-        <v>3.436619718309859</v>
+        <v>12.8421052631579</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2269,7 +2272,7 @@
         <v>71</v>
       </c>
       <c r="G79">
-        <v>4.267605633802817</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2292,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="G80">
-        <v>4.486111111111111</v>
+        <v>17.94444444444444</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2315,7 +2318,7 @@
         <v>72</v>
       </c>
       <c r="G81">
-        <v>4.277777777777778</v>
+        <v>23.69230769230769</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2338,7 +2341,7 @@
         <v>72</v>
       </c>
       <c r="G82">
-        <v>3.680555555555555</v>
+        <v>16.5625</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2361,7 +2364,7 @@
         <v>72</v>
       </c>
       <c r="G83">
-        <v>5.125</v>
+        <v>52.71428571428572</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2384,7 +2387,7 @@
         <v>72</v>
       </c>
       <c r="G84">
-        <v>2.388888888888889</v>
+        <v>10.11764705882353</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2407,7 +2410,7 @@
         <v>72</v>
       </c>
       <c r="G85">
-        <v>3.986111111111111</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2430,7 +2433,7 @@
         <v>73</v>
       </c>
       <c r="G86">
-        <v>4.054794520547945</v>
+        <v>15.57894736842105</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2453,7 +2456,7 @@
         <v>73</v>
       </c>
       <c r="G87">
-        <v>2.575342465753425</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2476,7 +2479,7 @@
         <v>73</v>
       </c>
       <c r="G88">
-        <v>3.520547945205479</v>
+        <v>19.76923076923077</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2499,7 +2502,7 @@
         <v>73</v>
       </c>
       <c r="G89">
-        <v>4.397260273972603</v>
+        <v>8.916666666666666</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2522,7 +2525,7 @@
         <v>73</v>
       </c>
       <c r="G90">
-        <v>4.780821917808219</v>
+        <v>10.90625</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2545,7 +2548,7 @@
         <v>73</v>
       </c>
       <c r="G91">
-        <v>2.479452054794521</v>
+        <v>10.64705882352941</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2568,7 +2571,7 @@
         <v>74</v>
       </c>
       <c r="G92">
-        <v>3.162162162162162</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2591,7 +2594,7 @@
         <v>74</v>
       </c>
       <c r="G93">
-        <v>4.189189189189189</v>
+        <v>16.31578947368421</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2614,7 +2617,7 @@
         <v>74</v>
       </c>
       <c r="G94">
-        <v>4.297297297297297</v>
+        <v>45.42857142857143</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2637,7 +2640,7 @@
         <v>74</v>
       </c>
       <c r="G95">
-        <v>5.135135135135135</v>
+        <v>8.444444444444445</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2660,7 +2663,7 @@
         <v>75</v>
       </c>
       <c r="G96">
-        <v>4.173333333333333</v>
+        <v>44.71428571428572</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2683,7 +2686,7 @@
         <v>75</v>
       </c>
       <c r="G97">
-        <v>4.613333333333333</v>
+        <v>43.25</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2706,7 +2709,7 @@
         <v>75</v>
       </c>
       <c r="G98">
-        <v>3.893333333333334</v>
+        <v>19.46666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2729,7 +2732,7 @@
         <v>75</v>
       </c>
       <c r="G99">
-        <v>3.146666666666667</v>
+        <v>8.428571428571429</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2752,7 +2755,7 @@
         <v>75</v>
       </c>
       <c r="G100">
-        <v>3.8</v>
+        <v>20.35714285714286</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2775,7 +2778,7 @@
         <v>76</v>
       </c>
       <c r="G101">
-        <v>2.776315789473684</v>
+        <v>3.637931034482758</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2798,7 +2801,7 @@
         <v>76</v>
       </c>
       <c r="G102">
-        <v>2.578947368421053</v>
+        <v>8.909090909090908</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2821,7 +2824,7 @@
         <v>76</v>
       </c>
       <c r="G103">
-        <v>5.013157894736842</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2844,7 +2847,7 @@
         <v>76</v>
       </c>
       <c r="G104">
-        <v>2.671052631578947</v>
+        <v>8.458333333333334</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2867,7 +2870,7 @@
         <v>76</v>
       </c>
       <c r="G105">
-        <v>3.407894736842105</v>
+        <v>6.475</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2890,7 +2893,7 @@
         <v>76</v>
       </c>
       <c r="G106">
-        <v>3.907894736842105</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2913,7 +2916,7 @@
         <v>77</v>
       </c>
       <c r="G107">
-        <v>4.181818181818182</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2936,7 +2939,7 @@
         <v>77</v>
       </c>
       <c r="G108">
-        <v>2.48051948051948</v>
+        <v>7.958333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2959,7 +2962,7 @@
         <v>77</v>
       </c>
       <c r="G109">
-        <v>3.48051948051948</v>
+        <v>19.14285714285714</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2982,7 +2985,7 @@
         <v>77</v>
       </c>
       <c r="G110">
-        <v>3.415584415584416</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3005,7 +3008,7 @@
         <v>77</v>
       </c>
       <c r="G111">
-        <v>4.064935064935065</v>
+        <v>11.17857142857143</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3028,7 +3031,7 @@
         <v>78</v>
       </c>
       <c r="G112">
-        <v>3.371794871794872</v>
+        <v>9.068965517241379</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3051,7 +3054,7 @@
         <v>78</v>
       </c>
       <c r="G113">
-        <v>2.615384615384615</v>
+        <v>7.285714285714286</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3074,7 +3077,7 @@
         <v>78</v>
       </c>
       <c r="G114">
-        <v>3.58974358974359</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3097,7 +3100,7 @@
         <v>79</v>
       </c>
       <c r="G115">
-        <v>3.607594936708861</v>
+        <v>6.627906976744186</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3120,7 +3123,7 @@
         <v>79</v>
       </c>
       <c r="G116">
-        <v>1.987341772151899</v>
+        <v>11.21428571428571</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3143,7 +3146,7 @@
         <v>79</v>
       </c>
       <c r="G117">
-        <v>3.075949367088608</v>
+        <v>11.04545454545454</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3166,7 +3169,7 @@
         <v>79</v>
       </c>
       <c r="G118">
-        <v>3.670886075949367</v>
+        <v>8.285714285714286</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3189,7 +3192,7 @@
         <v>79</v>
       </c>
       <c r="G119">
-        <v>3.860759493670886</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3212,7 +3215,7 @@
         <v>80</v>
       </c>
       <c r="G120">
-        <v>3.525</v>
+        <v>13.42857142857143</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3235,7 +3238,7 @@
         <v>80</v>
       </c>
       <c r="G121">
-        <v>3.425</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3258,7 +3261,7 @@
         <v>80</v>
       </c>
       <c r="G122">
-        <v>3.8875</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3281,7 +3284,7 @@
         <v>80</v>
       </c>
       <c r="G123">
-        <v>4.075</v>
+        <v>36.22222222222222</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3304,7 +3307,7 @@
         <v>81</v>
       </c>
       <c r="G124">
-        <v>4.765432098765432</v>
+        <v>16.08333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3327,7 +3330,7 @@
         <v>83</v>
       </c>
       <c r="G125">
-        <v>3.602409638554217</v>
+        <v>14.23809523809524</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3350,7 +3353,7 @@
         <v>83</v>
       </c>
       <c r="G126">
-        <v>3.951807228915662</v>
+        <v>9.647058823529411</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3373,7 +3376,7 @@
         <v>83</v>
       </c>
       <c r="G127">
-        <v>3.168674698795181</v>
+        <v>11.95454545454546</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3396,7 +3399,7 @@
         <v>84</v>
       </c>
       <c r="G128">
-        <v>4.011904761904762</v>
+        <v>9.108108108108109</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3419,7 +3422,7 @@
         <v>84</v>
       </c>
       <c r="G129">
-        <v>3.178571428571428</v>
+        <v>12.71428571428571</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3442,7 +3445,7 @@
         <v>84</v>
       </c>
       <c r="G130">
-        <v>3.035714285714286</v>
+        <v>11.59090909090909</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3465,7 +3468,7 @@
         <v>84</v>
       </c>
       <c r="G131">
-        <v>3.833333333333333</v>
+        <v>29.27272727272727</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3488,7 +3491,7 @@
         <v>85</v>
       </c>
       <c r="G132">
-        <v>3.258823529411765</v>
+        <v>21.30769230769231</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3511,7 +3514,7 @@
         <v>85</v>
       </c>
       <c r="G133">
-        <v>2.835294117647059</v>
+        <v>11.47619047619048</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3534,7 +3537,7 @@
         <v>85</v>
       </c>
       <c r="G134">
-        <v>3.31764705882353</v>
+        <v>10.07142857142857</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3557,7 +3560,7 @@
         <v>85</v>
       </c>
       <c r="G135">
-        <v>3.611764705882353</v>
+        <v>18.05882352941176</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3580,7 +3583,7 @@
         <v>86</v>
       </c>
       <c r="G136">
-        <v>4.127906976744186</v>
+        <v>14.79166666666667</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3603,7 +3606,7 @@
         <v>87</v>
       </c>
       <c r="G137">
-        <v>3.333333333333333</v>
+        <v>7.631578947368421</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3626,7 +3629,7 @@
         <v>87</v>
       </c>
       <c r="G138">
-        <v>3.298850574712644</v>
+        <v>16.88235294117647</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3649,7 +3652,7 @@
         <v>87</v>
       </c>
       <c r="G139">
-        <v>2.632183908045977</v>
+        <v>8.481481481481481</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3672,7 +3675,7 @@
         <v>87</v>
       </c>
       <c r="G140">
-        <v>3.586206896551724</v>
+        <v>8.210526315789474</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3695,7 +3698,7 @@
         <v>87</v>
       </c>
       <c r="G141">
-        <v>2.35632183908046</v>
+        <v>10.78947368421053</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3718,7 +3721,7 @@
         <v>88</v>
       </c>
       <c r="G142">
-        <v>3.840909090909091</v>
+        <v>28.16666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3741,7 +3744,7 @@
         <v>88</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>11.47826086956522</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3764,7 +3767,7 @@
         <v>88</v>
       </c>
       <c r="G144">
-        <v>3.954545454545455</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3787,7 +3790,7 @@
         <v>88</v>
       </c>
       <c r="G145">
-        <v>2.329545454545455</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3810,7 +3813,7 @@
         <v>89</v>
       </c>
       <c r="G146">
-        <v>3.876404494382022</v>
+        <v>14.375</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3833,7 +3836,7 @@
         <v>90</v>
       </c>
       <c r="G147">
-        <v>3.055555555555555</v>
+        <v>11.95652173913044</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3856,7 +3859,7 @@
         <v>90</v>
       </c>
       <c r="G148">
-        <v>1.7</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3879,7 +3882,7 @@
         <v>90</v>
       </c>
       <c r="G149">
-        <v>3.188888888888889</v>
+        <v>5.415094339622642</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3902,7 +3905,7 @@
         <v>90</v>
       </c>
       <c r="G150">
-        <v>3.422222222222222</v>
+        <v>17.11111111111111</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3925,7 +3928,7 @@
         <v>91</v>
       </c>
       <c r="G151">
-        <v>2.956043956043956</v>
+        <v>12.80952380952381</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3948,7 +3951,7 @@
         <v>92</v>
       </c>
       <c r="G152">
-        <v>1.989130434782609</v>
+        <v>8.318181818181818</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3971,7 +3974,7 @@
         <v>92</v>
       </c>
       <c r="G153">
-        <v>3.434782608695652</v>
+        <v>9.294117647058824</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3994,7 +3997,7 @@
         <v>92</v>
       </c>
       <c r="G154">
-        <v>2.956521739130435</v>
+        <v>9.066666666666666</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4017,7 +4020,7 @@
         <v>92</v>
       </c>
       <c r="G155">
-        <v>3.119565217391304</v>
+        <v>16.88235294117647</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4040,7 +4043,7 @@
         <v>93</v>
       </c>
       <c r="G156">
-        <v>3.978494623655914</v>
+        <v>30.83333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4063,7 +4066,7 @@
         <v>93</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>8.454545454545455</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4086,7 +4089,7 @@
         <v>93</v>
       </c>
       <c r="G158">
-        <v>3.870967741935484</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4109,7 +4112,7 @@
         <v>94</v>
       </c>
       <c r="G159">
-        <v>3.180851063829787</v>
+        <v>8.542857142857143</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4132,7 +4135,7 @@
         <v>94</v>
       </c>
       <c r="G160">
-        <v>2.542553191489362</v>
+        <v>5.829268292682927</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4155,7 +4158,7 @@
         <v>94</v>
       </c>
       <c r="G161">
-        <v>3.074468085106383</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4178,7 +4181,7 @@
         <v>94</v>
       </c>
       <c r="G162">
-        <v>2.297872340425532</v>
+        <v>5.142857142857143</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4201,7 +4204,7 @@
         <v>94</v>
       </c>
       <c r="G163">
-        <v>2.787234042553191</v>
+        <v>37.42857142857143</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4224,7 +4227,7 @@
         <v>94</v>
       </c>
       <c r="G164">
-        <v>2.372340425531915</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4247,7 +4250,7 @@
         <v>95</v>
       </c>
       <c r="G165">
-        <v>2.357894736842105</v>
+        <v>7.466666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4270,7 +4273,7 @@
         <v>95</v>
       </c>
       <c r="G166">
-        <v>3.063157894736842</v>
+        <v>26.45454545454545</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4293,7 +4296,7 @@
         <v>95</v>
       </c>
       <c r="G167">
-        <v>2.915789473684211</v>
+        <v>7.486486486486487</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4316,7 +4319,7 @@
         <v>95</v>
       </c>
       <c r="G168">
-        <v>2.431578947368421</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4339,7 +4342,7 @@
         <v>95</v>
       </c>
       <c r="G169">
-        <v>2.831578947368421</v>
+        <v>12.80952380952381</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4362,7 +4365,7 @@
         <v>96</v>
       </c>
       <c r="G170">
-        <v>3.010416666666667</v>
+        <v>26.27272727272727</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4385,7 +4388,7 @@
         <v>97</v>
       </c>
       <c r="G171">
-        <v>2.360824742268041</v>
+        <v>6.939393939393939</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4408,7 +4411,7 @@
         <v>97</v>
       </c>
       <c r="G172">
-        <v>2.536082474226804</v>
+        <v>5.72093023255814</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4431,7 +4434,7 @@
         <v>97</v>
       </c>
       <c r="G173">
-        <v>2.927835051546392</v>
+        <v>14.94736842105263</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4454,7 +4457,7 @@
         <v>97</v>
       </c>
       <c r="G174">
-        <v>3.484536082474227</v>
+        <v>7.347826086956522</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4477,7 +4480,7 @@
         <v>97</v>
       </c>
       <c r="G175">
-        <v>2.948453608247423</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4500,7 +4503,7 @@
         <v>97</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>26.45454545454545</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4523,7 +4526,7 @@
         <v>97</v>
       </c>
       <c r="G177">
-        <v>3.402061855670103</v>
+        <v>8.048780487804878</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4546,7 +4549,7 @@
         <v>98</v>
       </c>
       <c r="G178">
-        <v>2.775510204081633</v>
+        <v>7.351351351351352</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4569,7 +4572,7 @@
         <v>98</v>
       </c>
       <c r="G179">
-        <v>3.020408163265306</v>
+        <v>7.589743589743589</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4592,7 +4595,7 @@
         <v>98</v>
       </c>
       <c r="G180">
-        <v>3.255102040816327</v>
+        <v>8.861111111111111</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4615,7 +4618,7 @@
         <v>98</v>
       </c>
       <c r="G181">
-        <v>3.459183673469388</v>
+        <v>26.07692307692308</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4638,7 +4641,7 @@
         <v>98</v>
       </c>
       <c r="G182">
-        <v>2.795918367346939</v>
+        <v>8.838709677419354</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4661,7 +4664,7 @@
         <v>98</v>
       </c>
       <c r="G183">
-        <v>2.081632653061225</v>
+        <v>10.73684210526316</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4684,7 +4687,7 @@
         <v>98</v>
       </c>
       <c r="G184">
-        <v>3.061224489795918</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4707,7 +4710,7 @@
         <v>99</v>
       </c>
       <c r="G185">
-        <v>2.818181818181818</v>
+        <v>6.804878048780488</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4730,7 +4733,7 @@
         <v>100</v>
       </c>
       <c r="G186">
-        <v>2.94</v>
+        <v>17.29411764705882</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4753,7 +4756,7 @@
         <v>100</v>
       </c>
       <c r="G187">
-        <v>3.02</v>
+        <v>7.743589743589744</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4776,7 +4779,7 @@
         <v>100</v>
       </c>
       <c r="G188">
-        <v>2.99</v>
+        <v>11.07407407407407</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4799,7 +4802,7 @@
         <v>100</v>
       </c>
       <c r="G189">
-        <v>2.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4822,7 +4825,7 @@
         <v>100</v>
       </c>
       <c r="G190">
-        <v>2.76</v>
+        <v>6.418604651162791</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4845,7 +4848,7 @@
         <v>101</v>
       </c>
       <c r="G191">
-        <v>2.079207920792079</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4868,7 +4871,7 @@
         <v>101</v>
       </c>
       <c r="G192">
-        <v>2.633663366336634</v>
+        <v>7.189189189189189</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4891,7 +4894,7 @@
         <v>102</v>
       </c>
       <c r="G193">
-        <v>3.794117647058823</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4914,7 +4917,7 @@
         <v>102</v>
       </c>
       <c r="G194">
-        <v>2.529411764705882</v>
+        <v>8.32258064516129</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4937,7 +4940,7 @@
         <v>102</v>
       </c>
       <c r="G195">
-        <v>3.264705882352941</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4960,7 +4963,7 @@
         <v>102</v>
       </c>
       <c r="G196">
-        <v>2.754901960784314</v>
+        <v>13.38095238095238</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4983,7 +4986,7 @@
         <v>102</v>
       </c>
       <c r="G197">
-        <v>3.009803921568627</v>
+        <v>9.029411764705882</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5006,7 +5009,7 @@
         <v>103</v>
       </c>
       <c r="G198">
-        <v>2.563106796116505</v>
+        <v>5.866666666666666</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5029,7 +5032,7 @@
         <v>103</v>
       </c>
       <c r="G199">
-        <v>2.601941747572816</v>
+        <v>5.702127659574468</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5052,7 +5055,7 @@
         <v>103</v>
       </c>
       <c r="G200">
-        <v>2.621359223300971</v>
+        <v>6.136363636363637</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5075,7 +5078,7 @@
         <v>104</v>
       </c>
       <c r="G201">
-        <v>2.788461538461538</v>
+        <v>7.435897435897436</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5098,7 +5101,7 @@
         <v>105</v>
       </c>
       <c r="G202">
-        <v>2.942857142857143</v>
+        <v>13.43478260869565</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5121,7 +5124,7 @@
         <v>106</v>
       </c>
       <c r="G203">
-        <v>2.339622641509434</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5144,7 +5147,7 @@
         <v>107</v>
       </c>
       <c r="G204">
-        <v>3.130841121495327</v>
+        <v>27.91666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5167,7 +5170,7 @@
         <v>107</v>
       </c>
       <c r="G205">
-        <v>2.728971962616822</v>
+        <v>9.125</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5190,7 +5193,7 @@
         <v>107</v>
       </c>
       <c r="G206">
-        <v>2.962616822429907</v>
+        <v>10.2258064516129</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5213,7 +5216,7 @@
         <v>107</v>
       </c>
       <c r="G207">
-        <v>3.355140186915888</v>
+        <v>11.58064516129032</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5236,7 +5239,7 @@
         <v>107</v>
       </c>
       <c r="G208">
-        <v>3.654205607476635</v>
+        <v>8.886363636363637</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5259,7 +5262,7 @@
         <v>108</v>
       </c>
       <c r="G209">
-        <v>2.305555555555555</v>
+        <v>7.545454545454546</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5282,7 +5285,7 @@
         <v>108</v>
       </c>
       <c r="G210">
-        <v>2.898148148148148</v>
+        <v>18.41176470588235</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5305,7 +5308,7 @@
         <v>108</v>
       </c>
       <c r="G211">
-        <v>2.481481481481481</v>
+        <v>6.090909090909091</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5328,7 +5331,7 @@
         <v>108</v>
       </c>
       <c r="G212">
-        <v>2.75</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5351,7 +5354,7 @@
         <v>108</v>
       </c>
       <c r="G213">
-        <v>3.12962962962963</v>
+        <v>6.035714285714286</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5374,7 +5377,7 @@
         <v>108</v>
       </c>
       <c r="G214">
-        <v>2.657407407407407</v>
+        <v>17.9375</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5397,7 +5400,7 @@
         <v>109</v>
       </c>
       <c r="G215">
-        <v>3.137614678899082</v>
+        <v>6.576923076923077</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5420,7 +5423,7 @@
         <v>110</v>
       </c>
       <c r="G216">
-        <v>2.609090909090909</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5443,7 +5446,7 @@
         <v>110</v>
       </c>
       <c r="G217">
-        <v>2.954545454545455</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5466,7 +5469,7 @@
         <v>110</v>
       </c>
       <c r="G218">
-        <v>3.309090909090909</v>
+        <v>15.82608695652174</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5489,7 +5492,7 @@
         <v>111</v>
       </c>
       <c r="G219">
-        <v>1.810810810810811</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5512,7 +5515,7 @@
         <v>111</v>
       </c>
       <c r="G220">
-        <v>1.891891891891892</v>
+        <v>5.526315789473684</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5535,7 +5538,7 @@
         <v>111</v>
       </c>
       <c r="G221">
-        <v>2.945945945945946</v>
+        <v>20.4375</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5558,7 +5561,7 @@
         <v>112</v>
       </c>
       <c r="G222">
-        <v>3.098214285714286</v>
+        <v>57.83333333333334</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5581,7 +5584,7 @@
         <v>112</v>
       </c>
       <c r="G223">
-        <v>2.741071428571428</v>
+        <v>10.96428571428571</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5604,7 +5607,7 @@
         <v>112</v>
       </c>
       <c r="G224">
-        <v>2.580357142857143</v>
+        <v>15.21052631578947</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5627,7 +5630,7 @@
         <v>113</v>
       </c>
       <c r="G225">
-        <v>2.592920353982301</v>
+        <v>12.20833333333333</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5650,7 +5653,7 @@
         <v>113</v>
       </c>
       <c r="G226">
-        <v>2.610619469026549</v>
+        <v>14.04761904761905</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5673,7 +5676,7 @@
         <v>113</v>
       </c>
       <c r="G227">
-        <v>3.309734513274336</v>
+        <v>14.38461538461539</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5696,7 +5699,7 @@
         <v>114</v>
       </c>
       <c r="G228">
-        <v>2.710526315789474</v>
+        <v>7.923076923076923</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5719,7 +5722,7 @@
         <v>114</v>
       </c>
       <c r="G229">
-        <v>2.070175438596491</v>
+        <v>13.11111111111111</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5742,7 +5745,7 @@
         <v>114</v>
       </c>
       <c r="G230">
-        <v>2.5</v>
+        <v>8.636363636363637</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5765,7 +5768,7 @@
         <v>114</v>
       </c>
       <c r="G231">
-        <v>2.254385964912281</v>
+        <v>6.425</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5788,7 +5791,7 @@
         <v>114</v>
       </c>
       <c r="G232">
-        <v>2.578947368421053</v>
+        <v>5.157894736842105</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5811,7 +5814,7 @@
         <v>115</v>
       </c>
       <c r="G233">
-        <v>2.252173913043478</v>
+        <v>6.317073170731708</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5834,7 +5837,7 @@
         <v>115</v>
       </c>
       <c r="G234">
-        <v>2.365217391304348</v>
+        <v>8.242424242424242</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5857,7 +5860,7 @@
         <v>115</v>
       </c>
       <c r="G235">
-        <v>2.069565217391304</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5880,7 +5883,7 @@
         <v>116</v>
       </c>
       <c r="G236">
-        <v>2.801724137931035</v>
+        <v>19.11764705882353</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5903,7 +5906,7 @@
         <v>116</v>
       </c>
       <c r="G237">
-        <v>1.775862068965517</v>
+        <v>6.242424242424242</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5926,7 +5929,7 @@
         <v>116</v>
       </c>
       <c r="G238">
-        <v>2.456896551724138</v>
+        <v>13.57142857142857</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5949,7 +5952,7 @@
         <v>116</v>
       </c>
       <c r="G239">
-        <v>2.543103448275862</v>
+        <v>9.516129032258064</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5972,7 +5975,7 @@
         <v>116</v>
       </c>
       <c r="G240">
-        <v>1.655172413793103</v>
+        <v>14.76923076923077</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5995,7 +5998,7 @@
         <v>116</v>
       </c>
       <c r="G241">
-        <v>2.5</v>
+        <v>4.202898550724638</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6018,7 +6021,7 @@
         <v>117</v>
       </c>
       <c r="G242">
-        <v>2.461538461538462</v>
+        <v>6.697674418604652</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6041,7 +6044,7 @@
         <v>117</v>
       </c>
       <c r="G243">
-        <v>1.811965811965812</v>
+        <v>8.153846153846153</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6064,7 +6067,7 @@
         <v>118</v>
       </c>
       <c r="G244">
-        <v>2.5</v>
+        <v>8.676470588235293</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6087,7 +6090,7 @@
         <v>119</v>
       </c>
       <c r="G245">
-        <v>2.260504201680672</v>
+        <v>8.151515151515152</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6110,7 +6113,7 @@
         <v>119</v>
       </c>
       <c r="G246">
-        <v>2.495798319327731</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6133,7 +6136,7 @@
         <v>120</v>
       </c>
       <c r="G247">
-        <v>1.916666666666667</v>
+        <v>3.066666666666667</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6156,7 +6159,7 @@
         <v>121</v>
       </c>
       <c r="G248">
-        <v>2.371900826446281</v>
+        <v>7.175</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6179,7 +6182,7 @@
         <v>122</v>
       </c>
       <c r="G249">
-        <v>2.368852459016393</v>
+        <v>7.410256410256411</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6202,7 +6205,7 @@
         <v>122</v>
       </c>
       <c r="G250">
-        <v>2.573770491803279</v>
+        <v>17.44444444444444</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6225,7 +6228,7 @@
         <v>122</v>
       </c>
       <c r="G251">
-        <v>2.418032786885246</v>
+        <v>22.69230769230769</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6248,7 +6251,7 @@
         <v>123</v>
       </c>
       <c r="G252">
-        <v>1.975609756097561</v>
+        <v>8.379310344827585</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6271,7 +6274,7 @@
         <v>124</v>
       </c>
       <c r="G253">
-        <v>1.42741935483871</v>
+        <v>3.933333333333333</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6294,7 +6297,7 @@
         <v>124</v>
       </c>
       <c r="G254">
-        <v>2.25</v>
+        <v>6.804878048780488</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6317,7 +6320,7 @@
         <v>125</v>
       </c>
       <c r="G255">
-        <v>2.312</v>
+        <v>15.21052631578947</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6340,7 +6343,7 @@
         <v>126</v>
       </c>
       <c r="G256">
-        <v>2.714285714285714</v>
+        <v>11.03225806451613</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6363,7 +6366,7 @@
         <v>126</v>
       </c>
       <c r="G257">
-        <v>1.722222222222222</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6386,7 +6389,7 @@
         <v>126</v>
       </c>
       <c r="G258">
-        <v>1.801587301587302</v>
+        <v>6.878787878787879</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6409,7 +6412,7 @@
         <v>127</v>
       </c>
       <c r="G259">
-        <v>2.440944881889764</v>
+        <v>9.6875</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6432,7 +6435,7 @@
         <v>127</v>
       </c>
       <c r="G260">
-        <v>2.480314960629921</v>
+        <v>9.545454545454545</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6455,7 +6458,7 @@
         <v>127</v>
       </c>
       <c r="G261">
-        <v>2.559055118110236</v>
+        <v>7.926829268292683</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6478,7 +6481,7 @@
         <v>127</v>
       </c>
       <c r="G262">
-        <v>2.338582677165354</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6501,7 +6504,7 @@
         <v>128</v>
       </c>
       <c r="G263">
-        <v>2.3046875</v>
+        <v>5.784313725490196</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6524,7 +6527,7 @@
         <v>128</v>
       </c>
       <c r="G264">
-        <v>2.3125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6547,7 +6550,7 @@
         <v>129</v>
       </c>
       <c r="G265">
-        <v>2.496124031007752</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6570,7 +6573,7 @@
         <v>129</v>
       </c>
       <c r="G266">
-        <v>2.410852713178294</v>
+        <v>10.03225806451613</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6593,7 +6596,7 @@
         <v>129</v>
       </c>
       <c r="G267">
-        <v>2.015503875968992</v>
+        <v>7.878787878787879</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6616,7 +6619,7 @@
         <v>129</v>
       </c>
       <c r="G268">
-        <v>2.085271317829458</v>
+        <v>5.489795918367347</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6639,7 +6642,7 @@
         <v>130</v>
       </c>
       <c r="G269">
-        <v>2.015384615384615</v>
+        <v>7.081081081081081</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6662,7 +6665,7 @@
         <v>130</v>
       </c>
       <c r="G270">
-        <v>2.261538461538461</v>
+        <v>6.533333333333333</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6685,7 +6688,7 @@
         <v>130</v>
       </c>
       <c r="G271">
-        <v>2.453846153846154</v>
+        <v>22.78571428571428</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6708,7 +6711,7 @@
         <v>131</v>
       </c>
       <c r="G272">
-        <v>2.526717557251908</v>
+        <v>30.09090909090909</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6731,7 +6734,7 @@
         <v>131</v>
       </c>
       <c r="G273">
-        <v>2.030534351145038</v>
+        <v>11.56521739130435</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6754,7 +6757,7 @@
         <v>131</v>
       </c>
       <c r="G274">
-        <v>2.251908396946565</v>
+        <v>3.831168831168831</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6777,7 +6780,7 @@
         <v>131</v>
       </c>
       <c r="G275">
-        <v>2.106870229007634</v>
+        <v>4.181818181818182</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6800,7 +6803,7 @@
         <v>132</v>
       </c>
       <c r="G276">
-        <v>2.053030303030303</v>
+        <v>6.775</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6823,7 +6826,7 @@
         <v>133</v>
       </c>
       <c r="G277">
-        <v>2.56390977443609</v>
+        <v>18.94444444444444</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6846,7 +6849,7 @@
         <v>134</v>
       </c>
       <c r="G278">
-        <v>2.007462686567164</v>
+        <v>5.723404255319149</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6869,7 +6872,7 @@
         <v>134</v>
       </c>
       <c r="G279">
-        <v>2.23134328358209</v>
+        <v>13.59090909090909</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6892,7 +6895,7 @@
         <v>135</v>
       </c>
       <c r="G280">
-        <v>2.488888888888889</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6915,7 +6918,7 @@
         <v>135</v>
       </c>
       <c r="G281">
-        <v>2.977777777777778</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6938,7 +6941,7 @@
         <v>135</v>
       </c>
       <c r="G282">
-        <v>2.02962962962963</v>
+        <v>7.025641025641026</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6961,7 +6964,7 @@
         <v>135</v>
       </c>
       <c r="G283">
-        <v>2.585185185185185</v>
+        <v>6.84313725490196</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6984,7 +6987,7 @@
         <v>137</v>
       </c>
       <c r="G284">
-        <v>2.963503649635037</v>
+        <v>21.36842105263158</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7007,7 +7010,7 @@
         <v>138</v>
       </c>
       <c r="G285">
-        <v>2.289855072463768</v>
+        <v>18.58823529411765</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7030,7 +7033,7 @@
         <v>138</v>
       </c>
       <c r="G286">
-        <v>2.065217391304348</v>
+        <v>7.307692307692307</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7053,7 +7056,7 @@
         <v>138</v>
       </c>
       <c r="G287">
-        <v>2.27536231884058</v>
+        <v>8.263157894736842</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7076,7 +7079,7 @@
         <v>138</v>
       </c>
       <c r="G288">
-        <v>2.246376811594203</v>
+        <v>4.558823529411764</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7099,7 +7102,7 @@
         <v>138</v>
       </c>
       <c r="G289">
-        <v>2.239130434782609</v>
+        <v>5.517857142857143</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7122,7 +7125,7 @@
         <v>139</v>
       </c>
       <c r="G290">
-        <v>2.568345323741007</v>
+        <v>27.46153846153846</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7145,7 +7148,7 @@
         <v>141</v>
       </c>
       <c r="G291">
-        <v>1.914893617021277</v>
+        <v>7.105263157894737</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7168,7 +7171,7 @@
         <v>141</v>
       </c>
       <c r="G292">
-        <v>2.205673758865248</v>
+        <v>10.72413793103448</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7191,7 +7194,7 @@
         <v>141</v>
       </c>
       <c r="G293">
-        <v>1.815602836879433</v>
+        <v>5.565217391304348</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7214,7 +7217,7 @@
         <v>142</v>
       </c>
       <c r="G294">
-        <v>2.147887323943662</v>
+        <v>10.51724137931035</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7237,7 +7240,7 @@
         <v>142</v>
       </c>
       <c r="G295">
-        <v>2.140845070422535</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7260,7 +7263,7 @@
         <v>142</v>
       </c>
       <c r="G296">
-        <v>1.816901408450704</v>
+        <v>4.229508196721311</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7283,7 +7286,7 @@
         <v>142</v>
       </c>
       <c r="G297">
-        <v>2.323943661971831</v>
+        <v>66</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7306,7 +7309,7 @@
         <v>143</v>
       </c>
       <c r="G298">
-        <v>1.811188811188811</v>
+        <v>8.35483870967742</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7329,7 +7332,7 @@
         <v>143</v>
       </c>
       <c r="G299">
-        <v>1.573426573426573</v>
+        <v>6.081081081081081</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7352,7 +7355,7 @@
         <v>143</v>
       </c>
       <c r="G300">
-        <v>1.79020979020979</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7375,7 +7378,7 @@
         <v>143</v>
       </c>
       <c r="G301">
-        <v>2.300699300699301</v>
+        <v>15.66666666666667</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7398,7 +7401,7 @@
         <v>145</v>
       </c>
       <c r="G302">
-        <v>2.310344827586207</v>
+        <v>6.320754716981132</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7421,7 +7424,7 @@
         <v>146</v>
       </c>
       <c r="G303">
-        <v>2.547945205479452</v>
+        <v>33.81818181818182</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7444,7 +7447,7 @@
         <v>146</v>
       </c>
       <c r="G304">
-        <v>2.075342465753425</v>
+        <v>33.66666666666666</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7467,7 +7470,7 @@
         <v>146</v>
       </c>
       <c r="G305">
-        <v>2.23972602739726</v>
+        <v>9.909090909090908</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7490,7 +7493,7 @@
         <v>147</v>
       </c>
       <c r="G306">
-        <v>2.17687074829932</v>
+        <v>4.155844155844155</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7513,7 +7516,7 @@
         <v>147</v>
       </c>
       <c r="G307">
-        <v>1.775510204081633</v>
+        <v>5.553191489361702</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7536,7 +7539,7 @@
         <v>148</v>
       </c>
       <c r="G308">
-        <v>1.905405405405405</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7559,7 +7562,7 @@
         <v>149</v>
       </c>
       <c r="G309">
-        <v>2.167785234899329</v>
+        <v>4.82089552238806</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7582,7 +7585,7 @@
         <v>149</v>
       </c>
       <c r="G310">
-        <v>2.026845637583893</v>
+        <v>4.314285714285714</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7605,7 +7608,7 @@
         <v>150</v>
       </c>
       <c r="G311">
-        <v>1.926666666666667</v>
+        <v>6.148936170212766</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7628,7 +7631,7 @@
         <v>150</v>
       </c>
       <c r="G312">
-        <v>2.68</v>
+        <v>12.96774193548387</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7651,7 +7654,7 @@
         <v>151</v>
       </c>
       <c r="G313">
-        <v>1.596026490066225</v>
+        <v>6.025</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7674,7 +7677,7 @@
         <v>152</v>
       </c>
       <c r="G314">
-        <v>2.631578947368421</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7697,7 +7700,7 @@
         <v>153</v>
       </c>
       <c r="G315">
-        <v>1.92156862745098</v>
+        <v>6.837209302325581</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7720,7 +7723,7 @@
         <v>154</v>
       </c>
       <c r="G316">
-        <v>1.396103896103896</v>
+        <v>6.515151515151516</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7743,7 +7746,7 @@
         <v>154</v>
       </c>
       <c r="G317">
-        <v>1.954545454545455</v>
+        <v>27.36363636363636</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7766,7 +7769,7 @@
         <v>155</v>
       </c>
       <c r="G318">
-        <v>2.064516129032258</v>
+        <v>24.61538461538462</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7789,7 +7792,7 @@
         <v>155</v>
       </c>
       <c r="G319">
-        <v>2.148387096774194</v>
+        <v>4.970149253731344</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7812,7 +7815,7 @@
         <v>155</v>
       </c>
       <c r="G320">
-        <v>2.509677419354839</v>
+        <v>11.78787878787879</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7835,7 +7838,7 @@
         <v>156</v>
       </c>
       <c r="G321">
-        <v>2.333333333333333</v>
+        <v>4.986301369863014</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7858,7 +7861,7 @@
         <v>156</v>
       </c>
       <c r="G322">
-        <v>2.153846153846154</v>
+        <v>10.83870967741935</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7881,7 +7884,7 @@
         <v>157</v>
       </c>
       <c r="G323">
-        <v>1.987261146496815</v>
+        <v>39</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7904,7 +7907,7 @@
         <v>158</v>
       </c>
       <c r="G324">
-        <v>2.525316455696203</v>
+        <v>9.279069767441861</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7927,7 +7930,7 @@
         <v>159</v>
       </c>
       <c r="G325">
-        <v>2.062893081761006</v>
+        <v>3.727272727272727</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7950,7 +7953,7 @@
         <v>159</v>
       </c>
       <c r="G326">
-        <v>1.773584905660377</v>
+        <v>6.558139534883721</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7973,7 +7976,7 @@
         <v>159</v>
       </c>
       <c r="G327">
-        <v>1.943396226415094</v>
+        <v>7.536585365853658</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7996,7 +7999,7 @@
         <v>160</v>
       </c>
       <c r="G328">
-        <v>2.20625</v>
+        <v>6.192982456140351</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -8019,7 +8022,7 @@
         <v>160</v>
       </c>
       <c r="G329">
-        <v>2.225</v>
+        <v>12.27586206896552</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8042,7 +8045,7 @@
         <v>160</v>
       </c>
       <c r="G330">
-        <v>1.80625</v>
+        <v>13.13636363636364</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8065,7 +8068,7 @@
         <v>161</v>
       </c>
       <c r="G331">
-        <v>1.440993788819876</v>
+        <v>2.936708860759494</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8088,7 +8091,7 @@
         <v>161</v>
       </c>
       <c r="G332">
-        <v>1.925465838509317</v>
+        <v>4.558823529411764</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8111,7 +8114,7 @@
         <v>162</v>
       </c>
       <c r="G333">
-        <v>1.537037037037037</v>
+        <v>2.862068965517242</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8134,7 +8137,7 @@
         <v>162</v>
       </c>
       <c r="G334">
-        <v>2.191358024691358</v>
+        <v>11.09375</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8157,7 +8160,7 @@
         <v>162</v>
       </c>
       <c r="G335">
-        <v>1.611111111111111</v>
+        <v>5.4375</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8180,7 +8183,7 @@
         <v>164</v>
       </c>
       <c r="G336">
-        <v>1.920731707317073</v>
+        <v>7.875</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8203,7 +8206,7 @@
         <v>165</v>
       </c>
       <c r="G337">
-        <v>1.854545454545454</v>
+        <v>14.57142857142857</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8226,7 +8229,7 @@
         <v>166</v>
       </c>
       <c r="G338">
-        <v>1.951807228915663</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8249,7 +8252,7 @@
         <v>168</v>
       </c>
       <c r="G339">
-        <v>1.547619047619048</v>
+        <v>5.909090909090909</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8272,7 +8275,7 @@
         <v>170</v>
       </c>
       <c r="G340">
-        <v>1.823529411764706</v>
+        <v>2.183098591549296</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8295,7 +8298,7 @@
         <v>175</v>
       </c>
       <c r="G341">
-        <v>1.714285714285714</v>
+        <v>3.260869565217391</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8318,7 +8321,7 @@
         <v>181</v>
       </c>
       <c r="G342">
-        <v>2.110497237569061</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8341,7 +8344,7 @@
         <v>183</v>
       </c>
       <c r="G343">
-        <v>1.53551912568306</v>
+        <v>3.021505376344086</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8364,7 +8367,7 @@
         <v>189</v>
       </c>
       <c r="G344">
-        <v>1.735449735449735</v>
+        <v>3.009174311926606</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8387,7 +8390,7 @@
         <v>190</v>
       </c>
       <c r="G345">
-        <v>1.38421052631579</v>
+        <v>5.15686274509804</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8410,7 +8413,7 @@
         <v>192</v>
       </c>
       <c r="G346">
-        <v>1.572916666666667</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -8433,7 +8436,7 @@
         <v>195</v>
       </c>
       <c r="G347">
-        <v>1.764102564102564</v>
+        <v>16.38095238095238</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8456,7 +8459,7 @@
         <v>197</v>
       </c>
       <c r="G348">
-        <v>1.619289340101523</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -8479,7 +8482,7 @@
         <v>198</v>
       </c>
       <c r="G349">
-        <v>1.803030303030303</v>
+        <v>39.66666666666666</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -8502,7 +8505,7 @@
         <v>199</v>
       </c>
       <c r="G350">
-        <v>1.708542713567839</v>
+        <v>4.415584415584416</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8525,7 +8528,7 @@
         <v>203</v>
       </c>
       <c r="G351">
-        <v>1.660098522167488</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -8548,7 +8551,7 @@
         <v>209</v>
       </c>
       <c r="G352">
-        <v>1.354066985645933</v>
+        <v>4.287878787878788</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -8571,7 +8574,7 @@
         <v>215</v>
       </c>
       <c r="G353">
-        <v>1.562790697674419</v>
+        <v>2.434782608695652</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -8594,7 +8597,7 @@
         <v>219</v>
       </c>
       <c r="G354">
-        <v>1.954337899543379</v>
+        <v>30.57142857142857</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -8617,7 +8620,7 @@
         <v>269</v>
       </c>
       <c r="G355">
-        <v>1.661710037174721</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -8640,7 +8643,7 @@
         <v>290</v>
       </c>
       <c r="G356">
-        <v>1.110344827586207</v>
+        <v>4.878787878787879</v>
       </c>
     </row>
   </sheetData>
